--- a/biology/Botanique/Strychnos_ternata/Strychnos_ternata.xlsx
+++ b/biology/Botanique/Strychnos_ternata/Strychnos_ternata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Strychnos ternata Gilg ex Leeuwenb. est une espèce de plantes de la famille des Loganiaceae et du genre Strychnos[2], endémique du Cameroun.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Strychnos ternata Gilg ex Leeuwenb. est une espèce de plantes de la famille des Loganiaceae et du genre Strychnos, endémique du Cameroun.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un arbre, moyen à grand, pouvant atteindre 25 m de hauteur et 80 cm de diamètre[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un arbre, moyen à grand, pouvant atteindre 25 m de hauteur et 80 cm de diamètre.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique, assez rare, elle a été collectée sur huit sites dans la Région de l'Est au Cameroun[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique, assez rare, elle a été collectée sur huit sites dans la Région de l'Est au Cameroun.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Cameroun, l'espèce, comme plusieurs autres du genre Strychnos, est utilisée comme poison pour la chasse et la pêche[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Cameroun, l'espèce, comme plusieurs autres du genre Strychnos, est utilisée comme poison pour la chasse et la pêche.
 </t>
         </is>
       </c>
